--- a/nifa/UFSEED_Budget.xlsx
+++ b/nifa/UFSEED_Budget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="997" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="997" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PI " sheetId="1" state="visible" r:id="rId2"/>
@@ -1082,24 +1082,20 @@
   </sheetPr>
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="27.1953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4093023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="28.7953488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="14.8883720930233"/>
     <col collapsed="false" hidden="true" max="13" min="6" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="30.8883720930233"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="32" min="25" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="32.6093023255814"/>
+    <col collapsed="false" hidden="false" max="32" min="25" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,7 +1247,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="14" t="n">
         <f aca="false">E11/V20*100</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="14" t="n">
         <f aca="false">G11/Y20*100</f>
@@ -1326,11 +1322,12 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="17" t="n">
-        <v>0</v>
+        <f aca="false">0.1*18</f>
+        <v>1.8</v>
       </c>
       <c r="E9" s="18" t="n">
         <f aca="false">W7*D9</f>
-        <v>0</v>
+        <v>12046.1538461538</v>
       </c>
       <c r="F9" s="19" t="n">
         <v>0</v>
@@ -1362,7 +1359,7 @@
       </c>
       <c r="N9" s="20" t="n">
         <f aca="false">E9+G9+I9+K9+M9</f>
-        <v>0</v>
+        <v>12046.1538461538</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="21" t="s">
@@ -1501,11 +1498,11 @@
       </c>
       <c r="D11" s="33" t="n">
         <f aca="false">SUM(D9:D10)</f>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="E11" s="34" t="n">
         <f aca="false">SUM(E9:E10)</f>
-        <v>0</v>
+        <v>12046.1538461538</v>
       </c>
       <c r="F11" s="35" t="n">
         <f aca="false">SUM(F9:F10)</f>
@@ -1541,12 +1538,12 @@
       </c>
       <c r="N11" s="20" t="n">
         <f aca="false">E11+G11+I11+K11+M11</f>
-        <v>0</v>
+        <v>12046.1538461538</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="14" t="n">
         <f aca="false">E9/V19*100</f>
-        <v>0</v>
+        <v>20.0769230769231</v>
       </c>
       <c r="Q11" s="14" t="n">
         <f aca="false">G9/Y19*100</f>
@@ -2296,7 +2293,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="34" t="n">
         <f aca="false">E20+E11</f>
-        <v>31500</v>
+        <v>43546.1538461539</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34" t="n">
@@ -2320,7 +2317,7 @@
       </c>
       <c r="N22" s="20" t="n">
         <f aca="false">E22+G22+I22+K22+M22</f>
-        <v>31500</v>
+        <v>43546.1538461539</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="12" t="s">
@@ -2401,7 +2398,7 @@
       </c>
       <c r="E25" s="18" t="n">
         <f aca="false">E11*$C25</f>
-        <v>0</v>
+        <v>3240.41538461538</v>
       </c>
       <c r="G25" s="18" t="n">
         <f aca="false">G11*$C25</f>
@@ -2421,7 +2418,7 @@
       </c>
       <c r="N25" s="20" t="n">
         <f aca="false">E25+G25+I25+K25+M25</f>
-        <v>0</v>
+        <v>3240.41538461538</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="12" t="s">
@@ -2621,7 +2618,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="34" t="n">
         <f aca="false">SUM(E25:E30)</f>
-        <v>787.5</v>
+        <v>4027.91538461538</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="34" t="n">
@@ -2645,7 +2642,7 @@
       </c>
       <c r="N31" s="20" t="n">
         <f aca="false">E31+G31+I31+K31+M31</f>
-        <v>787.5</v>
+        <v>4027.91538461538</v>
       </c>
       <c r="O31" s="2"/>
     </row>
@@ -2662,7 +2659,7 @@
       <c r="D33" s="68"/>
       <c r="E33" s="69" t="n">
         <f aca="false">E22+E31</f>
-        <v>32287.5</v>
+        <v>47574.0692307692</v>
       </c>
       <c r="F33" s="69"/>
       <c r="G33" s="69" t="n">
@@ -2686,7 +2683,7 @@
       </c>
       <c r="N33" s="20" t="n">
         <f aca="false">E33+G33+I33+K33+M33</f>
-        <v>32287.5</v>
+        <v>47574.0692307692</v>
       </c>
       <c r="O33" s="2"/>
       <c r="V33" s="70"/>
@@ -3017,7 +3014,7 @@
       <c r="D48" s="68"/>
       <c r="E48" s="69" t="n">
         <f aca="false">E33+E41+E46</f>
-        <v>56787.5</v>
+        <v>72074.0692307692</v>
       </c>
       <c r="F48" s="68"/>
       <c r="G48" s="69" t="n">
@@ -3041,7 +3038,7 @@
       </c>
       <c r="N48" s="20" t="n">
         <f aca="false">E48+G48+I48+K48+M48</f>
-        <v>56787.5</v>
+        <v>72074.0692307692</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3058,7 +3055,7 @@
       <c r="D50" s="74"/>
       <c r="E50" s="76" t="n">
         <f aca="false">E48-E46</f>
-        <v>56787.5</v>
+        <v>72074.0692307692</v>
       </c>
       <c r="F50" s="74"/>
       <c r="G50" s="76" t="n">
@@ -3082,7 +3079,7 @@
       </c>
       <c r="N50" s="20" t="n">
         <f aca="false">E50+G50+I50+K50+M50</f>
-        <v>56787.5</v>
+        <v>72074.0692307692</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,7 +3153,7 @@
       <c r="D57" s="83"/>
       <c r="E57" s="20" t="n">
         <f aca="false">E48+E54</f>
-        <v>56787.5</v>
+        <v>72074.0692307692</v>
       </c>
       <c r="F57" s="83"/>
       <c r="G57" s="20" t="n">
@@ -3180,7 +3177,7 @@
       </c>
       <c r="N57" s="20" t="n">
         <f aca="false">E57+G57+I57+K57+M57</f>
-        <v>56787.5</v>
+        <v>72074.0692307692</v>
       </c>
     </row>
   </sheetData>
@@ -3219,22 +3216,19 @@
   </sheetPr>
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G47" activeCellId="0" sqref="G47"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="27.1953488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="4" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="21" min="15" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="30.8883720930233"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="12.553488372093"/>
-    <col collapsed="false" hidden="false" max="32" min="25" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4093023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="28.7953488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="4" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="32.6093023255814"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="32" min="25" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3388,7 +3382,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="14" t="n">
         <f aca="false">E11/V20*100</f>
-        <v>0</v>
+        <v>5.95378504198421</v>
       </c>
       <c r="Q7" s="14" t="n">
         <f aca="false">G11/Y20*100</f>
@@ -3461,11 +3455,11 @@
         <v>20</v>
       </c>
       <c r="D9" s="19" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E9" s="18" t="n">
         <f aca="false">W7*D9</f>
-        <v>0</v>
+        <v>8930.76</v>
       </c>
       <c r="F9" s="19" t="n">
         <v>0</v>
@@ -3497,7 +3491,7 @@
       </c>
       <c r="N9" s="20" t="n">
         <f aca="false">E9+G9+I9+K9+M9</f>
-        <v>0</v>
+        <v>8930.76</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="21" t="s">
@@ -3635,11 +3629,11 @@
       </c>
       <c r="D11" s="35" t="n">
         <f aca="false">SUM(D9:D10)</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E11" s="34" t="n">
         <f aca="false">SUM(E9:E10)</f>
-        <v>0</v>
+        <v>8930.76</v>
       </c>
       <c r="F11" s="35" t="n">
         <f aca="false">SUM(F9:F10)</f>
@@ -3675,12 +3669,12 @@
       </c>
       <c r="N11" s="20" t="n">
         <f aca="false">E11+G11+I11+K11+M11</f>
-        <v>0</v>
+        <v>8930.76</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="14" t="n">
         <f aca="false">E9/V19*100</f>
-        <v>0</v>
+        <v>7.96891228696351</v>
       </c>
       <c r="Q11" s="14" t="n">
         <f aca="false">G9/Y19*100</f>
@@ -4428,7 +4422,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="34" t="n">
         <f aca="false">E20+E11</f>
-        <v>12000</v>
+        <v>20930.76</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34" t="n">
@@ -4452,7 +4446,7 @@
       </c>
       <c r="N22" s="20" t="n">
         <f aca="false">E22+G22+I22+K22+M22</f>
-        <v>12000</v>
+        <v>20930.76</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="12" t="s">
@@ -4532,7 +4526,7 @@
       </c>
       <c r="E25" s="18" t="n">
         <f aca="false">E11*$C25</f>
-        <v>0</v>
+        <v>2402.37444</v>
       </c>
       <c r="G25" s="18" t="n">
         <f aca="false">G11*$C25</f>
@@ -4552,7 +4546,7 @@
       </c>
       <c r="N25" s="20" t="n">
         <f aca="false">E25+G25+I25+K25+M25</f>
-        <v>0</v>
+        <v>2402.37444</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="12" t="s">
@@ -4775,7 +4769,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="34" t="n">
         <f aca="false">SUM(E25:E30)</f>
-        <v>300</v>
+        <v>2702.37444</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="34" t="n">
@@ -4799,7 +4793,7 @@
       </c>
       <c r="N31" s="20" t="n">
         <f aca="false">E31+G31+I31+K31+M31</f>
-        <v>300</v>
+        <v>2702.37444</v>
       </c>
       <c r="O31" s="2"/>
       <c r="V31" s="45"/>
@@ -4824,7 +4818,7 @@
       <c r="D33" s="68"/>
       <c r="E33" s="69" t="n">
         <f aca="false">E22+E31</f>
-        <v>12300</v>
+        <v>23633.13444</v>
       </c>
       <c r="F33" s="69"/>
       <c r="G33" s="69" t="n">
@@ -4848,7 +4842,7 @@
       </c>
       <c r="N33" s="20" t="n">
         <f aca="false">E33+G33+I33+K33+M33</f>
-        <v>12300</v>
+        <v>23633.13444</v>
       </c>
       <c r="O33" s="2"/>
       <c r="V33" s="45"/>
@@ -5201,7 +5195,7 @@
       <c r="D48" s="68"/>
       <c r="E48" s="69" t="n">
         <f aca="false">E33+E41+E46</f>
-        <v>28300</v>
+        <v>39633.13444</v>
       </c>
       <c r="F48" s="68"/>
       <c r="G48" s="69" t="n">
@@ -5225,7 +5219,7 @@
       </c>
       <c r="N48" s="20" t="n">
         <f aca="false">E48+G48+I48+K48+M48</f>
-        <v>28300</v>
+        <v>39633.13444</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5252,7 +5246,7 @@
       <c r="D50" s="73"/>
       <c r="E50" s="76" t="n">
         <f aca="false">E48-E46</f>
-        <v>28300</v>
+        <v>39633.13444</v>
       </c>
       <c r="F50" s="73"/>
       <c r="G50" s="76" t="n">
@@ -5276,7 +5270,7 @@
       </c>
       <c r="N50" s="20" t="n">
         <f aca="false">E50+G50+I50+K50+M50</f>
-        <v>28300</v>
+        <v>39633.13444</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5307,7 +5301,7 @@
       <c r="D54" s="78"/>
       <c r="E54" s="82" t="n">
         <f aca="false">E50*$C53</f>
-        <v>14857.5</v>
+        <v>20807.395581</v>
       </c>
       <c r="F54" s="78"/>
       <c r="G54" s="82" t="n">
@@ -5331,7 +5325,7 @@
       </c>
       <c r="N54" s="20" t="n">
         <f aca="false">E54+G54+I54+K54+M54</f>
-        <v>14857.5</v>
+        <v>20807.395581</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5349,7 +5343,7 @@
       <c r="D57" s="83"/>
       <c r="E57" s="20" t="n">
         <f aca="false">E48+E54</f>
-        <v>43157.5</v>
+        <v>60440.530021</v>
       </c>
       <c r="F57" s="83"/>
       <c r="G57" s="20" t="n">
@@ -5373,7 +5367,7 @@
       </c>
       <c r="N57" s="20" t="n">
         <f aca="false">E57+G57+I57+K57+M57</f>
-        <v>43157.5</v>
+        <v>60440.530021</v>
       </c>
     </row>
   </sheetData>
@@ -5420,16 +5414,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="27.1953488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="4" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="21" min="15" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="30.8883720930233"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="12.553488372093"/>
-    <col collapsed="false" hidden="false" max="32" min="25" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4093023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="28.7953488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="4" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="32.6093023255814"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="32" min="25" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7601,16 +7592,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="27.1953488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="4" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="21" min="15" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="30.8883720930233"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="12.553488372093"/>
-    <col collapsed="false" hidden="false" max="32" min="25" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4093023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="28.7953488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="4" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="32.6093023255814"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="32" min="25" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12237,21 +12225,19 @@
   </sheetPr>
   <dimension ref="A1:BJ57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E48" activeCellId="0" sqref="E48"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4558139534884"/>
-    <col collapsed="false" hidden="false" max="13" min="4" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="92" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="20" min="15" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="28.7953488372093"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.5488372093023"/>
+    <col collapsed="false" hidden="false" max="13" min="4" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="92" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="30.3953488372093"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.153488372093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12819,7 +12805,7 @@
       </c>
       <c r="E9" s="18" t="n">
         <f aca="false">'PI '!E9+'Co-PI (1)'!E9+'Co-PI (2)'!E9+'Co-PI (3)'!E9</f>
-        <v>0</v>
+        <v>20976.9138461538</v>
       </c>
       <c r="F9" s="41" t="n">
         <v>0</v>
@@ -12851,7 +12837,7 @@
       </c>
       <c r="N9" s="20" t="n">
         <f aca="false">E9+G9+I9+K9+M9</f>
-        <v>0</v>
+        <v>20976.9138461538</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -13006,7 +12992,7 @@
       </c>
       <c r="E11" s="18" t="n">
         <f aca="false">'PI '!E11+'Co-PI (1)'!E11+'Co-PI (2)'!E11+'Co-PI (3)'!E11</f>
-        <v>0</v>
+        <v>20976.9138461538</v>
       </c>
       <c r="F11" s="41" t="n">
         <f aca="false">SUM(F9:F10)</f>
@@ -13042,7 +13028,7 @@
       </c>
       <c r="N11" s="20" t="n">
         <f aca="false">E11+G11+I11+K11+M11</f>
-        <v>0</v>
+        <v>20976.9138461538</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -13946,7 +13932,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="18" t="n">
         <f aca="false">'PI '!E22+'Co-PI (1)'!E22+'Co-PI (2)'!E22+'Co-PI (3)'!E22</f>
-        <v>43500</v>
+        <v>64476.9138461538</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18" t="n">
@@ -13970,7 +13956,7 @@
       </c>
       <c r="N22" s="20" t="n">
         <f aca="false">E22+G22+I22+K22+M22</f>
-        <v>43500</v>
+        <v>64476.9138461538</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -14174,7 +14160,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="18" t="n">
         <f aca="false">'PI '!E25+'Co-PI (1)'!E25+'Co-PI (2)'!E25+'Co-PI (3)'!E25</f>
-        <v>0</v>
+        <v>5642.78982461538</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18" t="n">
@@ -14198,7 +14184,7 @@
       </c>
       <c r="N25" s="20" t="n">
         <f aca="false">E25+G25+I25+K25+M25</f>
-        <v>0</v>
+        <v>5642.78982461538</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -14688,7 +14674,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="18" t="n">
         <f aca="false">'PI '!E31+'Co-PI (1)'!E31+'Co-PI (2)'!E31+'Co-PI (3)'!E31</f>
-        <v>1087.5</v>
+        <v>6730.28982461538</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18" t="n">
@@ -14712,7 +14698,7 @@
       </c>
       <c r="N31" s="20" t="n">
         <f aca="false">E31+G31+I31+K31+M31</f>
-        <v>1087.5</v>
+        <v>6730.28982461538</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -14836,7 +14822,7 @@
       <c r="D33" s="72"/>
       <c r="E33" s="103" t="n">
         <f aca="false">'PI '!E33+'Co-PI (1)'!E33+'Co-PI (2)'!E33+'Co-PI (3)'!E33</f>
-        <v>44587.5</v>
+        <v>71207.2036707692</v>
       </c>
       <c r="F33" s="103"/>
       <c r="G33" s="103" t="n">
@@ -14860,7 +14846,7 @@
       </c>
       <c r="N33" s="20" t="n">
         <f aca="false">E33+G33+I33+K33+M33</f>
-        <v>44587.5</v>
+        <v>71207.2036707692</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -16020,7 +16006,7 @@
       <c r="D48" s="68"/>
       <c r="E48" s="69" t="n">
         <f aca="false">'PI '!E48+'Co-PI (1)'!E48+'Co-PI (2)'!E48+'Co-PI (3)'!E48</f>
-        <v>85087.5</v>
+        <v>111707.203670769</v>
       </c>
       <c r="F48" s="69"/>
       <c r="G48" s="69" t="n">
@@ -16044,7 +16030,7 @@
       </c>
       <c r="N48" s="20" t="n">
         <f aca="false">E48+G48+I48+K48+M48</f>
-        <v>85087.5</v>
+        <v>111707.203670769</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -16170,7 +16156,7 @@
       <c r="D50" s="74"/>
       <c r="E50" s="76" t="n">
         <f aca="false">'PI '!E50+'Co-PI (1)'!E50+'Co-PI (2)'!E50+'Co-PI (3)'!E50</f>
-        <v>85087.5</v>
+        <v>111707.203670769</v>
       </c>
       <c r="F50" s="76"/>
       <c r="G50" s="76" t="n">
@@ -16194,7 +16180,7 @@
       </c>
       <c r="N50" s="20" t="n">
         <f aca="false">E50+G50+I50+K50+M50</f>
-        <v>85087.5</v>
+        <v>111707.203670769</v>
       </c>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -16452,7 +16438,7 @@
       <c r="D54" s="78"/>
       <c r="E54" s="82" t="n">
         <f aca="false">'PI '!E54+'Co-PI (1)'!E54+'Co-PI (2)'!E54+'Co-PI (3)'!E54</f>
-        <v>14857.5</v>
+        <v>20807.395581</v>
       </c>
       <c r="F54" s="82"/>
       <c r="G54" s="82" t="n">
@@ -16476,7 +16462,7 @@
       </c>
       <c r="N54" s="20" t="n">
         <f aca="false">E54+G54+I54+K54+M54</f>
-        <v>14857.5</v>
+        <v>20807.395581</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -16664,7 +16650,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="20" t="n">
         <f aca="false">'PI '!E57+'Co-PI (1)'!E57+'Co-PI (2)'!E57+'Co-PI (3)'!E57</f>
-        <v>99945</v>
+        <v>132514.599251769</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="20" t="n">
@@ -16688,7 +16674,7 @@
       </c>
       <c r="N57" s="20" t="n">
         <f aca="false">E57+G57+I57+K57+M57</f>
-        <v>99945</v>
+        <v>132514.599251769</v>
       </c>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
